--- a/biology/Botanique/Bellucia_grossularioides/Bellucia_grossularioides.xlsx
+++ b/biology/Botanique/Bellucia_grossularioides/Bellucia_grossularioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bellucia grossularioides est un arbre pionnier héliophile, de la famille des Melastomataceae et du genre Bellucia, présente du sud du Mexique au nord du Brésil en passant notamment par la Colombie, le Venezuela et les Guyanes. Ses fruits sont comestibles.
 </t>
@@ -511,12 +523,14 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il porte divers noms en Guyane : Corme, Mélier, Mélier à grandes fleurs, Néflier[2], Mêle, Bois mèle [bwa-mèl], Mésoupou, Bois messe [bwa-lanmès], Caca Henriette, Graine mèle en créole, Pɨsulu (Wayãpi), Asaki (Palikur) ou Mandapuça, Araça-de-anta, Goiaba-de-anta, Muuba (Portugais du Brésil)[3]. 
-Au Guyana, on le désigne sous les noms de Big jiggernet, Chiconit, Chiganet (d'après "jigger" ou "chigger", noms locaux de la puce-chique, en raison de ses petites graines brunes rappelant ses œufs), ou Mess apple (Créole), Itara, Sakwa sepere (Arawak), Asakali, Asakari (Carib), Sikararia (Warao)[4], et au Suriname, on l'appelle mespelboom, nispa[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il porte divers noms en Guyane : Corme, Mélier, Mélier à grandes fleurs, Néflier, Mêle, Bois mèle [bwa-mèl], Mésoupou, Bois messe [bwa-lanmès], Caca Henriette, Graine mèle en créole, Pɨsulu (Wayãpi), Asaki (Palikur) ou Mandapuça, Araça-de-anta, Goiaba-de-anta, Muuba (Portugais du Brésil). 
+Au Guyana, on le désigne sous les noms de Big jiggernet, Chiconit, Chiganet (d'après "jigger" ou "chigger", noms locaux de la puce-chique, en raison de ses petites graines brunes rappelant ses œufs), ou Mess apple (Créole), Itara, Sakwa sepere (Arawak), Asakali, Asakari (Carib), Sikararia (Warao), et au Suriname, on l'appelle mespelboom, nispa.
 On le nomme aussi nèfle du Mexique aux Antilles françaises (Guadeloupe, Martinique). 
-En espagnol, on l'appelle Carare, Guayaba de danta, Manzana de corona, Ojo de venado au Venezuela, et Siete-cuero en Colombie[2].
+En espagnol, on l'appelle Carare, Guayaba de danta, Manzana de corona, Ojo de venado au Venezuela, et Siete-cuero en Colombie.
 </t>
         </is>
       </c>
@@ -545,13 +559,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commun en forêt secondaire récente et ancienne (en Guyane)[3], cet arbre petit à moyen, de 3 à 10 mètres de haut (jusqu'à 30 mètres en Guyane).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Commun en forêt secondaire récente et ancienne (en Guyane), cet arbre petit à moyen, de 3 à 10 mètres de haut (jusqu'à 30 mètres en Guyane).
 Il porte des feuilles simples opposées, coriaces, glabres, vert brillant dessus et pâle dessous. Les pétioles mesurent de 10 à 6 cm de long. Le limbe elliptique à largement ovale, mesure de 15 à 35 x 10 à 20 cm, et est parcouru par trois nervures principales caractéristiques. la base obtuse à arrondie, l'apex peu acuminé, les marges entières ou dentelées chez les jeunes feuilles. 
-Ses inflorescences sont des cymes courtes, généralement à 2 fleurs, portées par un pédicelle long de 10-24 millimètres, et apparaissent à même les grosses branches (cauliflorie)[6]. Les fleurs, à cœur jaune et aux pétales blancs à extrémité rosée, sont généralement (6)7-8(9)-mères, avec un hypanthium long de 8-10 millimètres. Les pétales blancs et glabres mesurent (20)22-24 millimètres de long. Les anthères sont longues de 5-6 millimètres. L'ovaire comporte (12)13-14(15) loges. Le stigmate mesure 2,5-4 millimètres de diamètre. 
-Le fruit est une baie globuleuse tronquée au sommet (marques des restes du calice), mesurant 2 à 4,5 cm de diamètre, blancs devenant jaune pâle à maturité, contient une pulpe blanche, molle et fondante garnie de nombreuses petites graines[2],[7].
-Son bois parfait (à peine différencié de l’aubier), à grain moyen, est beige-brun clair, mi-dur, léger à mi-lourd (0,55-0,75 g/cm3)[8].
+Ses inflorescences sont des cymes courtes, généralement à 2 fleurs, portées par un pédicelle long de 10-24 millimètres, et apparaissent à même les grosses branches (cauliflorie). Les fleurs, à cœur jaune et aux pétales blancs à extrémité rosée, sont généralement (6)7-8(9)-mères, avec un hypanthium long de 8-10 millimètres. Les pétales blancs et glabres mesurent (20)22-24 millimètres de long. Les anthères sont longues de 5-6 millimètres. L'ovaire comporte (12)13-14(15) loges. Le stigmate mesure 2,5-4 millimètres de diamètre. 
+Le fruit est une baie globuleuse tronquée au sommet (marques des restes du calice), mesurant 2 à 4,5 cm de diamètre, blancs devenant jaune pâle à maturité, contient une pulpe blanche, molle et fondante garnie de nombreuses petites graines,.
+Son bois parfait (à peine différencié de l’aubier), à grain moyen, est beige-brun clair, mi-dur, léger à mi-lourd (0,55-0,75 g/cm3).
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fleurit en juin, et fructifie de juin à août. On le trouve communément dans la végétation secondaire, le long des routes et des sentiers plus larges. Les fruits sont mangés et dispersés par les animaux[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fleurit en juin, et fructifie de juin à août. On le trouve communément dans la végétation secondaire, le long des routes et des sentiers plus larges. Les fruits sont mangés et dispersés par les animaux.
 			Fleur et bouton de Bellucia grossularioides.
 			Fleur et jeunes fruits de Bellucia grossularioides
 </t>
@@ -613,14 +631,16 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit de saveur douce agréable peut être consommé frais, ou sous forme de compote ou de confiture[6]. Il est parfois planté en vergers pour ces fruits, comme dans la région du mont Terminus (rivière Barima (en), Guyana), sans pour autant faire l'objet d'un commerce[4].
-Ses fruits appréciés des tortues terrestres, servent d'appât : on cherche les tortues autour des arbres à l'époque où les fructifications sont abondantes[4].
-Ses feuilles servent à soigner les furoncles chez les Wayãpis, et sont utilisées dans pour le dressage des chiens de chasse chez les Palikurs. On l'emploie comme fongicide chez les Caboclos du bas Tapajós et pour guérir les foulures chez les Barasana d'Amazonie colombienne[3]. Les fruits sont réputés avoir des propriétés contre les vers intestinaux, et l'écorce interne macérée dans le rhum sert à masser le corps en cas de pertes vaginales excessives[10]. L'écorce interne renferme un latex rouge collant employée comme colorant rouge orangé chez les Wayãpis et les Kali'nas[11]. 
-L'écorce externe est pelée, la couche interne est grattée avec un couteau et les fibres de l'écorce sont frottées sur les objets en bois (pagaies, calebasses, arcs, cordes), leur donnant un aspect verni imperméable[4],[5].
-Cette plante est aussi utilisée en bain de vapeur pour ses vertus astringente afin de raffermir le vagin chez les populations Businenge du Suriname[12].
-Anecdotiquement, le bois est utilisé localement comme bois de chauffage[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit de saveur douce agréable peut être consommé frais, ou sous forme de compote ou de confiture. Il est parfois planté en vergers pour ces fruits, comme dans la région du mont Terminus (rivière Barima (en), Guyana), sans pour autant faire l'objet d'un commerce.
+Ses fruits appréciés des tortues terrestres, servent d'appât : on cherche les tortues autour des arbres à l'époque où les fructifications sont abondantes.
+Ses feuilles servent à soigner les furoncles chez les Wayãpis, et sont utilisées dans pour le dressage des chiens de chasse chez les Palikurs. On l'emploie comme fongicide chez les Caboclos du bas Tapajós et pour guérir les foulures chez les Barasana d'Amazonie colombienne. Les fruits sont réputés avoir des propriétés contre les vers intestinaux, et l'écorce interne macérée dans le rhum sert à masser le corps en cas de pertes vaginales excessives. L'écorce interne renferme un latex rouge collant employée comme colorant rouge orangé chez les Wayãpis et les Kali'nas. 
+L'écorce externe est pelée, la couche interne est grattée avec un couteau et les fibres de l'écorce sont frottées sur les objets en bois (pagaies, calebasses, arcs, cordes), leur donnant un aspect verni imperméable,.
+Cette plante est aussi utilisée en bain de vapeur pour ses vertus astringente afin de raffermir le vagin chez les populations Businenge du Suriname.
+Anecdotiquement, le bois est utilisé localement comme bois de chauffage.
 </t>
         </is>
       </c>
@@ -649,9 +669,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet rapporte ceci[13] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet rapporte ceci : 
 « BLAKEA (quinque-nervia) foliis ovato-oblongis, acuminatis, quinque-nerviis. ( Tabula 210.)
 Arbor mediocris, trunco ſeptem aut octo-pedali, in ſummitate ramoſo ; ramis &amp; ramulis oppoſitis, nodoſis, tubuloſis, hinc &amp; indè ſparſis. Folia oppoſita, ovata, acuta, ampla, integerrima, glabra, ſubquinque-nervia, petiolata. Flores axillares, ſolitarii vel bini, in Singulis axillis foliorum, pedunculo oblongo, ad baſim articulato ſuffulti, articulo maiginato.
 Florebat, fructumque ferebat Maio. 
